--- a/[5] Poverty Line/Garis Kemiskinan Wilayah Jawa Barat 2021 sd 2023.xlsx
+++ b/[5] Poverty Line/Garis Kemiskinan Wilayah Jawa Barat 2021 sd 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Document\GitHub\MyProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Document\GitHub\MyProject\[5] Poverty Line\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36EC298B-B063-4945-BB53-DFA912C5C266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF06853-1381-4420-85FB-F03EE052ED99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{1F7E8050-52E1-4A05-93A4-849C1540DE68}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="37" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>Wilayah Jawa Barat</t>
   </si>
@@ -199,9 +199,6 @@
     <t>Perubahan Rata-rata dan Varians Garis Kemiskinan Wilayah Jawa Barat 2021-2023</t>
   </si>
   <si>
-    <t>Ya, terjadi peningkatan rata-rata dan varians dari tahun ke tahun</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
   </si>
   <si>
     <t>Wilayah Jawa Barat dengan Garis Kemiskinan di atas &amp; di bawah rata-ratanya</t>
-  </si>
-  <si>
-    <t>Jumlah wilayah yang dibawah rata-ratanya lebih banyak dibandingkan yang di atas rata-ratanya</t>
   </si>
 </sst>
 </file>
@@ -752,7 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,15 +754,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,42 +779,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -861,14 +821,38 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,6 +862,48 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -897,48 +923,13 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -946,163 +937,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="1"/>
-        </left>
-        <right style="medium">
-          <color theme="1"/>
-        </right>
-        <bottom style="medium">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1213,6 +1048,84 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="1"/>
+        </left>
+        <right style="medium">
+          <color theme="1"/>
+        </right>
+        <bottom style="medium">
+          <color theme="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1591,19 +1504,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1659,19 +1560,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1727,19 +1616,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1786,6 +1663,9 @@
       <c:pivotFmt>
         <c:idx val="3"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1823,6 +1703,9 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -5032,7 +4915,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0B54742-3939-4B97-90EB-539AD14FA4C5}" name="PivotTable11" cacheId="37" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F0B54742-3939-4B97-90EB-539AD14FA4C5}" name="PivotTable11" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="F10:I16" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisRow" showAll="0">
@@ -5119,36 +5002,6 @@
     <dataField name="Sum of 2023" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="36">
-    <format dxfId="53">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="51">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="3">
-            <x v="0"/>
-            <x v="1"/>
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
     <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
@@ -5269,26 +5122,56 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="23">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="21">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="3">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -5665,10 +5548,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,875 +5563,855 @@
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="H1" s="50"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>2021</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>2022</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>2023</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2022</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>2023</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>2022</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="7">
         <v>705084</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="7">
         <v>744771</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="7">
         <v>804984</v>
       </c>
-      <c r="E3" s="4">
-        <f>(C3-B3)/(C3+B3)</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E29" si="0">(C3-B3)/(C3+B3)</f>
         <v>2.7373082135799788E-2</v>
       </c>
-      <c r="F3" s="5">
-        <f>(D3-C3)/(D3+C3)</f>
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F29" si="1">(D3-C3)/(D3+C3)</f>
         <v>3.8853238092472681E-2</v>
       </c>
       <c r="G3" s="2">
-        <f>ROUND(E3,2)</f>
+        <f t="shared" ref="G3:G29" si="2">ROUND(E3,2)</f>
         <v>0.03</v>
       </c>
       <c r="H3" s="2">
-        <f>ROUND(F3,2)</f>
+        <f t="shared" ref="H3:H29" si="3">ROUND(F3,2)</f>
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>692885</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>731392</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>795965</v>
       </c>
-      <c r="E4" s="4">
-        <f>(C4-B4)/(C4+B4)</f>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
         <v>2.7036173440980932E-2</v>
       </c>
-      <c r="F4" s="5">
-        <f>(D4-C4)/(D4+C4)</f>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
         <v>4.2277607658196478E-2</v>
       </c>
       <c r="G4" s="2">
-        <f>ROUND(E4,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H4" s="2">
-        <f>ROUND(F4,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>571425</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>608949</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>661384</v>
       </c>
-      <c r="E5" s="4">
-        <f>(C5-B5)/(C5+B5)</f>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
         <v>3.178992421046211E-2</v>
       </c>
-      <c r="F5" s="5">
-        <f>(D5-C5)/(D5+C5)</f>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
         <v>4.1276578660870811E-2</v>
       </c>
       <c r="G5" s="2">
-        <f>ROUND(E5,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H5" s="2">
-        <f>ROUND(F5,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>567734</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>594118</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>644276</v>
       </c>
-      <c r="E6" s="4">
-        <f>(C6-B6)/(C6+B6)</f>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
         <v>2.2708572176146358E-2</v>
       </c>
-      <c r="F6" s="5">
-        <f>(D6-C6)/(D6+C6)</f>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
         <v>4.0502457214747489E-2</v>
       </c>
       <c r="G6" s="2">
-        <f>ROUND(E6,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H6" s="2">
-        <f>ROUND(F6,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>549875</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
         <v>579221</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>632811</v>
       </c>
-      <c r="E7" s="4">
-        <f>(C7-B7)/(C7+B7)</f>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
         <v>2.5990704067678921E-2</v>
       </c>
-      <c r="F7" s="5">
-        <f>(D7-C7)/(D7+C7)</f>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>4.4215004224310912E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>ROUND(E7,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H7" s="2">
-        <f>ROUND(F7,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>515396</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>545675</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>591124</v>
       </c>
-      <c r="E8" s="4">
-        <f>(C8-B8)/(C8+B8)</f>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
         <v>2.8536261946655785E-2</v>
       </c>
-      <c r="F8" s="5">
-        <f>(D8-C8)/(D8+C8)</f>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>3.9979802937898434E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>ROUND(E8,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H8" s="2">
-        <f>ROUND(F8,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>522281</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
         <v>549450</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>590197</v>
       </c>
-      <c r="E9" s="4">
-        <f>(C9-B9)/(C9+B9)</f>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
         <v>2.5350577710264981E-2</v>
       </c>
-      <c r="F9" s="5">
-        <f>(D9-C9)/(D9+C9)</f>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>3.5754053667495289E-2</v>
       </c>
       <c r="G9" s="2">
-        <f>ROUND(E9,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H9" s="2">
-        <f>ROUND(F9,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>494201</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>521158</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>555889</v>
       </c>
-      <c r="E10" s="4">
-        <f>(C10-B10)/(C10+B10)</f>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
         <v>2.6549230370735869E-2</v>
       </c>
-      <c r="F10" s="5">
-        <f>(D10-C10)/(D10+C10)</f>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
         <v>3.2246503634474635E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>ROUND(E10,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H10" s="2">
-        <f>ROUND(F10,2)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>480341</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>498711</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>537497</v>
       </c>
-      <c r="E11" s="4">
-        <f>(C11-B11)/(C11+B11)</f>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
         <v>1.8763048336554136E-2</v>
       </c>
-      <c r="F11" s="5">
-        <f>(D11-C11)/(D11+C11)</f>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
         <v>3.7430708892423142E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>ROUND(E11,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H11" s="2">
-        <f>ROUND(F11,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>481754</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>499805</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>532545</v>
       </c>
-      <c r="E12" s="4">
-        <f>(C12-B12)/(C12+B12)</f>
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
         <v>1.8390132432181867E-2</v>
       </c>
-      <c r="F12" s="5">
-        <f>(D12-C12)/(D12+C12)</f>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
         <v>3.1714050467380246E-2</v>
       </c>
       <c r="G12" s="2">
-        <f>ROUND(E12,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H12" s="2">
-        <f>ROUND(F12,2)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>466813</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="7">
         <v>483319</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>520713</v>
       </c>
-      <c r="E13" s="4">
-        <f>(C13-B13)/(C13+B13)</f>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>1.7372323003540562E-2</v>
       </c>
-      <c r="F13" s="5">
-        <f>(D13-C13)/(D13+C13)</f>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
         <v>3.724383286588475E-2</v>
       </c>
       <c r="G13" s="2">
-        <f>ROUND(E13,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H13" s="2">
-        <f>ROUND(F13,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>467248</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>485613</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="7">
         <v>520579</v>
       </c>
-      <c r="E14" s="4">
-        <f>(C14-B14)/(C14+B14)</f>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
         <v>1.9273535174595246E-2</v>
       </c>
-      <c r="F14" s="5">
-        <f>(D14-C14)/(D14+C14)</f>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
         <v>3.4750822904574874E-2</v>
       </c>
       <c r="G14" s="2">
-        <f>ROUND(E14,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H14" s="2">
-        <f>ROUND(F14,2)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>418483</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>443787</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>482174</v>
       </c>
-      <c r="E15" s="4">
-        <f>(C15-B15)/(C15+B15)</f>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
         <v>2.9345796560242152E-2</v>
       </c>
-      <c r="F15" s="5">
-        <f>(D15-C15)/(D15+C15)</f>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
         <v>4.1456389631960744E-2</v>
       </c>
       <c r="G15" s="2">
-        <f>ROUND(E15,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H15" s="2">
-        <f>ROUND(F15,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>404635</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>416914</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>451853</v>
       </c>
-      <c r="E16" s="4">
-        <f>(C16-B16)/(C16+B16)</f>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
         <v>1.4946156589564347E-2</v>
       </c>
-      <c r="F16" s="5">
-        <f>(D16-C16)/(D16+C16)</f>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
         <v>4.0216766981250436E-2</v>
       </c>
       <c r="G16" s="2">
-        <f>ROUND(E16,2)</f>
+        <f t="shared" si="2"/>
         <v>0.01</v>
       </c>
       <c r="H16" s="2">
-        <f>ROUND(F16,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>394101</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>411174</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>447242</v>
       </c>
-      <c r="E17" s="4">
-        <f>(C17-B17)/(C17+B17)</f>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
         <v>2.1201452919810002E-2</v>
       </c>
-      <c r="F17" s="5">
-        <f>(D17-C17)/(D17+C17)</f>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
         <v>4.201692419526197E-2</v>
       </c>
       <c r="G17" s="2">
-        <f>ROUND(E17,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H17" s="2">
-        <f>ROUND(F17,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>389676</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>405294</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="7">
         <v>442108</v>
       </c>
-      <c r="E18" s="4">
-        <f>(C18-B18)/(C18+B18)</f>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
         <v>1.9646024378278424E-2</v>
       </c>
-      <c r="F18" s="5">
-        <f>(D18-C18)/(D18+C18)</f>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
         <v>4.3443371622913327E-2</v>
       </c>
       <c r="G18" s="2">
-        <f>ROUND(E18,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H18" s="2">
-        <f>ROUND(F18,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="7">
         <v>387631</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>406829</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="7">
         <v>437327</v>
       </c>
-      <c r="E19" s="4">
-        <f>(C19-B19)/(C19+B19)</f>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
         <v>2.416484152757848E-2</v>
       </c>
-      <c r="F19" s="5">
-        <f>(D19-C19)/(D19+C19)</f>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
         <v>3.6128393330142769E-2</v>
       </c>
       <c r="G19" s="2">
-        <f>ROUND(E19,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H19" s="2">
-        <f>ROUND(F19,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>387754</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>403663</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>434187</v>
       </c>
-      <c r="E20" s="4">
-        <f>(C20-B20)/(C20+B20)</f>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
         <v>2.0101918457652541E-2</v>
       </c>
-      <c r="F20" s="5">
-        <f>(D20-C20)/(D20+C20)</f>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
         <v>3.643134212567882E-2</v>
       </c>
       <c r="G20" s="2">
-        <f>ROUND(E20,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H20" s="2">
-        <f>ROUND(F20,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="7">
         <v>374470</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>393956</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="7">
         <v>426355</v>
       </c>
-      <c r="E21" s="4">
-        <f>(C21-B21)/(C21+B21)</f>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
         <v>2.5358329884725399E-2</v>
       </c>
-      <c r="F21" s="5">
-        <f>(D21-C21)/(D21+C21)</f>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
         <v>3.9495996030773695E-2</v>
       </c>
       <c r="G21" s="2">
-        <f>ROUND(E21,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H21" s="2">
-        <f>ROUND(F21,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>378819</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>398884</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="7">
         <v>426069</v>
       </c>
-      <c r="E22" s="4">
-        <f>(C22-B22)/(C22+B22)</f>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
         <v>2.5800337661035126E-2</v>
       </c>
-      <c r="F22" s="5">
-        <f>(D22-C22)/(D22+C22)</f>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
         <v>3.2953392496299791E-2</v>
       </c>
       <c r="G22" s="2">
-        <f>ROUND(E22,2)</f>
+        <f t="shared" si="2"/>
         <v>0.03</v>
       </c>
       <c r="H22" s="2">
-        <f>ROUND(F22,2)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="7">
         <v>357210</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="7">
         <v>373510</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="7">
         <v>408710</v>
       </c>
-      <c r="E23" s="4">
-        <f>(C23-B23)/(C23+B23)</f>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
         <v>2.2306765929494196E-2</v>
       </c>
-      <c r="F23" s="5">
-        <f>(D23-C23)/(D23+C23)</f>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
         <v>4.5000127841272275E-2</v>
       </c>
       <c r="G23" s="2">
-        <f>ROUND(E23,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H23" s="2">
-        <f>ROUND(F23,2)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>360691</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>372308</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="7">
         <v>404320</v>
       </c>
-      <c r="E24" s="4">
-        <f>(C24-B24)/(C24+B24)</f>
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
         <v>1.5848589152236223E-2</v>
       </c>
-      <c r="F24" s="5">
-        <f>(D24-C24)/(D24+C24)</f>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
         <v>4.1219219497623055E-2</v>
       </c>
       <c r="G24" s="2">
-        <f>ROUND(E24,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H24" s="2">
-        <f>ROUND(F24,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="7">
         <v>358069</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="7">
         <v>371665</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="7">
         <v>402767</v>
       </c>
-      <c r="E25" s="4">
-        <f>(C25-B25)/(C25+B25)</f>
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
         <v>1.8631446527090693E-2</v>
       </c>
-      <c r="F25" s="5">
-        <f>(D25-C25)/(D25+C25)</f>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
         <v>4.0161047064170903E-2</v>
       </c>
       <c r="G25" s="2">
-        <f>ROUND(E25,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H25" s="2">
-        <f>ROUND(F25,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="7">
         <v>360054</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>371870</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="7">
         <v>396573</v>
       </c>
-      <c r="E26" s="4">
-        <f>(C26-B26)/(C26+B26)</f>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
         <v>1.6143752630054485E-2</v>
       </c>
-      <c r="F26" s="5">
-        <f>(D26-C26)/(D26+C26)</f>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
         <v>3.2146821559959557E-2</v>
       </c>
       <c r="G26" s="2">
-        <f>ROUND(E26,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H26" s="2">
-        <f>ROUND(F26,2)</f>
+        <f t="shared" si="3"/>
         <v>0.03</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="7">
         <v>342094</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>357636</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="7">
         <v>392705</v>
       </c>
-      <c r="E27" s="4">
-        <f>(C27-B27)/(C27+B27)</f>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
         <v>2.2211424406556816E-2</v>
       </c>
-      <c r="F27" s="5">
-        <f>(D27-C27)/(D27+C27)</f>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
         <v>4.6737416721197432E-2</v>
       </c>
       <c r="G27" s="2">
-        <f>ROUND(E27,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="H27" s="10">
-        <f>ROUND(F27,2)</f>
+      <c r="H27" s="8">
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="7">
         <v>333909</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>347917</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="7">
         <v>378958</v>
       </c>
-      <c r="E28" s="4">
-        <f>(C28-B28)/(C28+B28)</f>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
         <v>2.0544831085936882E-2</v>
       </c>
-      <c r="F28" s="5">
-        <f>(D28-C28)/(D28+C28)</f>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
         <v>4.2704729148753222E-2</v>
       </c>
       <c r="G28" s="2">
-        <f>ROUND(E28,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H28" s="2">
-        <f>ROUND(F28,2)</f>
+        <f t="shared" si="3"/>
         <v>0.04</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="7">
         <v>320050</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="7">
         <v>335134</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="7">
         <v>367681</v>
       </c>
-      <c r="E29" s="4">
-        <f>(C29-B29)/(C29+B29)</f>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
         <v>2.3022540232972722E-2</v>
       </c>
-      <c r="F29" s="5">
-        <f>(D29-C29)/(D29+C29)</f>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
         <v>4.6309484003614038E-2</v>
       </c>
       <c r="G29" s="2">
-        <f>ROUND(E29,2)</f>
+        <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
       <c r="H29" s="2">
-        <f>ROUND(F29,2)</f>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
     </row>
@@ -6562,40 +6425,40 @@
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:H29">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
       <formula>0.04</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="lessThan">
       <formula>0.03</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
       <formula>0.04</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>0.04</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="lessThan">
       <formula>0.04</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
       <formula>0.04</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="greaterThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6610,8 +6473,8 @@
   </sheetPr>
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6627,1406 +6490,1402 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="20"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="20"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
     </row>
     <row r="10" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="60" t="s">
+      <c r="G10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="60" t="s">
+      <c r="H10" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I10" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="65" t="s">
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="36">
         <v>320050</v>
       </c>
-      <c r="H11" s="66">
+      <c r="H11" s="36">
         <v>335134</v>
       </c>
-      <c r="I11" s="66">
+      <c r="I11" s="36">
         <v>367681</v>
       </c>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="21">
         <v>1</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="23">
         <v>367681</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="65" t="s">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="66">
+      <c r="G12" s="36">
         <v>358069</v>
       </c>
-      <c r="H12" s="66">
+      <c r="H12" s="36">
         <v>371665</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="36">
         <v>402767</v>
       </c>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="23">
         <v>378958</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="65" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="66">
+      <c r="G13" s="36">
         <v>342094</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="36">
         <v>357636</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="36">
         <v>392705</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="23">
         <v>392705</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="65" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="66">
+      <c r="G14" s="36">
         <v>360054</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="36">
         <v>371870</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="36">
         <v>396573</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="21">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="23">
         <v>396573</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="65" t="s">
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="66">
+      <c r="G15" s="36">
         <v>333909</v>
       </c>
-      <c r="H15" s="66">
+      <c r="H15" s="36">
         <v>347917</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="36">
         <v>378958</v>
       </c>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36">
+      <c r="A16" s="24">
         <v>5</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="26">
         <v>402767</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="65" t="s">
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="66">
+      <c r="G16" s="36">
         <v>1714176</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="36">
         <v>1784222</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="36">
         <v>1938684</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="60"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="21">
         <v>1</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="23">
         <v>804984</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="21">
         <v>2</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="23">
         <v>795965</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="21">
         <v>3</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="23">
         <v>661384</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="21">
         <v>4</v>
       </c>
-      <c r="B23" s="54" t="s">
+      <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="23">
         <v>644276</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36">
+      <c r="A24" s="24">
         <v>5</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="26">
         <v>632811</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="60"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="61"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="61"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="63"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="61"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="51" t="s">
+      <c r="A29" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="61"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="61"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="21">
         <v>1</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="23">
         <v>3.1714050467380246E-2</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="33">
+      <c r="A32" s="21">
         <v>2</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="23">
         <v>3.2146821559959557E-2</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="61"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="33">
+      <c r="A33" s="21">
         <v>3</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="23">
         <v>3.2246503634474635E-2</v>
       </c>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="60"/>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="61"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="21">
         <v>4</v>
       </c>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="23">
         <v>3.2953392496299791E-2</v>
       </c>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="61"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="36">
+      <c r="A35" s="24">
         <v>5</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="26">
         <v>3.4750822904574874E-2</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="61"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="61"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="60"/>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
-      <c r="J38" s="60"/>
-      <c r="K38" s="61"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="33">
+      <c r="A39" s="21">
         <v>1</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="B39" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="32">
         <v>4.6737416721197432E-2</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="60"/>
-      <c r="K39" s="61"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="33">
+      <c r="A40" s="21">
         <v>2</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="32">
         <v>4.6309484003614038E-2</v>
       </c>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="61"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="33">
+      <c r="A41" s="21">
         <v>3</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="B41" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="32">
         <v>4.5000127841272275E-2</v>
       </c>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="61"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="33">
+      <c r="A42" s="21">
         <v>4</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="32">
         <v>4.4215004224310912E-2</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="60"/>
-      <c r="H42" s="60"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="60"/>
-      <c r="K42" s="61"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="33">
+      <c r="A43" s="21">
         <v>5</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="32">
         <v>4.3443371622913327E-2</v>
       </c>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="61"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
-      <c r="K44" s="61"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="60"/>
-      <c r="K45" s="61"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="60"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="61"/>
+      <c r="A46" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="61"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="A48" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="61"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="40">
+      <c r="B49" s="28">
         <v>2021</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="29">
         <v>2022</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="29">
         <v>2023</v>
       </c>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="60"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="61"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="56">
+      <c r="B50" s="32">
         <f>AVERAGE(Data!B3:B29)</f>
         <v>447506.77777777775</v>
       </c>
-      <c r="C50" s="56">
+      <c r="C50" s="32">
         <f>AVERAGE(Data!C3:C29)</f>
         <v>468619.37037037039</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="23">
         <f>AVERAGE(Data!D3:D29)</f>
         <v>506925.66666666669</v>
       </c>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="61"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="34">
         <f>_xlfn.VAR.S(Data!B3:B29)</f>
         <v>10766304130.71796</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="34">
         <f>_xlfn.VAR.S(Data!C3:C29)</f>
         <v>12363875115.934458</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="26">
         <f>_xlfn.VAR.S(Data!D3:D29)</f>
         <v>14458693548.538462</v>
       </c>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="61"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="60"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
-      <c r="K52" s="61"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="60"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="60"/>
-      <c r="K53" s="61"/>
+      <c r="B53" s="75"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="40">
+      <c r="B54" s="28">
         <v>2021</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="29">
         <v>2022</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="29">
         <v>2023</v>
       </c>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="60"/>
-      <c r="K54" s="61"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="B55" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="56">
+      <c r="B55" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="32">
         <f>C50-B50</f>
         <v>21112.592592592642</v>
       </c>
-      <c r="D55" s="56">
+      <c r="D55" s="32">
         <f>D50-C50</f>
         <v>38306.296296296292</v>
       </c>
-      <c r="E55" s="60"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="60"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="60"/>
-      <c r="K55" s="61"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B56" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C56" s="56">
+      <c r="B56" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="32">
         <f>C51-B51</f>
         <v>1597570985.2164974</v>
       </c>
-      <c r="D56" s="56">
+      <c r="D56" s="32">
         <f>D51-C51</f>
         <v>2094818432.6040039</v>
       </c>
-      <c r="E56" s="60"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="60"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="60"/>
-      <c r="K56" s="61"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="60"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="60"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="60"/>
-      <c r="K57" s="61"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="61"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="62" t="s">
+      <c r="A59" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="36"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
+    </row>
+    <row r="61" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="60"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="60"/>
-      <c r="K59" s="61"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="63"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="61"/>
-    </row>
-    <row r="61" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="74"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="74"/>
-      <c r="H61" s="74"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="61"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C62" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="60"/>
-      <c r="E62" s="60"/>
-      <c r="F62" s="60"/>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="60"/>
-      <c r="K62" s="61"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="72">
+      <c r="A63" s="46">
         <v>1</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="61"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="72">
+      <c r="A64" s="46">
         <v>2</v>
       </c>
-      <c r="B64" s="75" t="s">
+      <c r="B64" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D64" s="60"/>
-      <c r="E64" s="60"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="60"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="61"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="72">
+      <c r="A65" s="46">
         <v>3</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="60"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="60"/>
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
-      <c r="J65" s="60"/>
-      <c r="K65" s="61"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="72">
+      <c r="A66" s="46">
         <v>4</v>
       </c>
-      <c r="B66" s="75" t="s">
+      <c r="B66" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="60"/>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="61"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="72">
+      <c r="A67" s="46">
         <v>5</v>
       </c>
-      <c r="B67" s="75" t="s">
+      <c r="B67" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="60"/>
-      <c r="E67" s="60"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="60"/>
-      <c r="H67" s="60"/>
-      <c r="I67" s="60"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="61"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="72">
+      <c r="A68" s="46">
         <f>A67+1</f>
         <v>6</v>
       </c>
-      <c r="B68" s="76" t="s">
+      <c r="B68" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="60"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="60"/>
-      <c r="H68" s="60"/>
-      <c r="I68" s="60"/>
-      <c r="J68" s="60"/>
-      <c r="K68" s="61"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="72">
+      <c r="A69" s="46">
         <f t="shared" ref="A69:A77" si="0">A68+1</f>
         <v>7</v>
       </c>
-      <c r="B69" s="76" t="s">
+      <c r="B69" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="75" t="s">
+      <c r="C69" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="61"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="72">
+      <c r="A70" s="46">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B70" s="76" t="s">
+      <c r="B70" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C70" s="75" t="s">
+      <c r="C70" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="60"/>
-      <c r="E70" s="60"/>
-      <c r="F70" s="60"/>
-      <c r="G70" s="60"/>
-      <c r="H70" s="60"/>
-      <c r="I70" s="60"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="61"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="72">
+      <c r="A71" s="46">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C71" s="75" t="s">
+      <c r="C71" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="61"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="72">
+      <c r="A72" s="46">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B72" s="76" t="s">
+      <c r="B72" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="75" t="s">
+      <c r="C72" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="61"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="72">
+      <c r="A73" s="46">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B73" s="76" t="s">
+      <c r="B73" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="75" t="s">
+      <c r="C73" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
-      <c r="H73" s="60"/>
-      <c r="I73" s="60"/>
-      <c r="J73" s="60"/>
-      <c r="K73" s="61"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="72">
+      <c r="A74" s="46">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B74" s="76" t="s">
+      <c r="B74" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C74" s="75" t="s">
+      <c r="C74" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="60"/>
-      <c r="H74" s="60"/>
-      <c r="I74" s="60"/>
-      <c r="J74" s="60"/>
-      <c r="K74" s="61"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="37"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="72">
+      <c r="A75" s="46">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B75" s="77"/>
-      <c r="C75" s="75" t="s">
+      <c r="B75" s="56"/>
+      <c r="C75" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="60"/>
-      <c r="E75" s="60"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="60"/>
-      <c r="I75" s="60"/>
-      <c r="J75" s="60"/>
-      <c r="K75" s="61"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="37"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="72">
+      <c r="A76" s="46">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B76" s="78"/>
-      <c r="C76" s="75" t="s">
+      <c r="B76" s="57"/>
+      <c r="C76" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="60"/>
-      <c r="E76" s="60"/>
-      <c r="F76" s="60"/>
-      <c r="G76" s="60"/>
-      <c r="H76" s="60"/>
-      <c r="I76" s="60"/>
-      <c r="J76" s="60"/>
-      <c r="K76" s="61"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="37"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="72">
+      <c r="A77" s="46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B77" s="79"/>
-      <c r="C77" s="75" t="s">
+      <c r="B77" s="58"/>
+      <c r="C77" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="61"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="37"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="68"/>
-      <c r="B78" s="69"/>
-      <c r="C78" s="69"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="69"/>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
-      <c r="J78" s="69"/>
-      <c r="K78" s="70"/>
+      <c r="A78" s="42"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="43"/>
+      <c r="K78" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
